--- a/Analysis/server0s5p/client0.1s/csr600d0.3.xlsx
+++ b/Analysis/server0s5p/client0.1s/csr600d0.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Topology</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Graph: Latency between each device</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -4446,11 +4449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73347456"/>
-        <c:axId val="73349376"/>
+        <c:axId val="128929152"/>
+        <c:axId val="132863488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73347456"/>
+        <c:axId val="128929152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73349376"/>
+        <c:crossAx val="132863488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4468,7 +4471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73349376"/>
+        <c:axId val="132863488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4479,7 +4482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73347456"/>
+        <c:crossAx val="128929152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4827,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:VW104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32101,6 +32104,13 @@
       <c r="A82" t="s">
         <v>24</v>
       </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(83:85)</f>
+        <v>1071.0392817059483</v>
+      </c>
     </row>
     <row r="83" spans="1:595" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -43310,7 +43320,7 @@
         <v>-114</v>
       </c>
       <c r="UW88">
-        <f t="shared" ref="UW88:UY88" si="1056">UV47-UV18</f>
+        <f t="shared" ref="UW88" si="1056">UV47-UV18</f>
         <v>33750</v>
       </c>
       <c r="UX88">
@@ -45691,7 +45701,7 @@
         <v>-135</v>
       </c>
       <c r="UW89">
-        <f t="shared" ref="UW89:UY89" si="1326">UV74-UV18</f>
+        <f t="shared" ref="UW89" si="1326">UV74-UV18</f>
         <v>34290</v>
       </c>
       <c r="UX89">
@@ -48072,7 +48082,7 @@
         <v>21363</v>
       </c>
       <c r="UW90">
-        <f t="shared" ref="UW90:UY90" si="1596">UV22-UV45</f>
+        <f t="shared" ref="UW90" si="1596">UV22-UV45</f>
         <v>20276</v>
       </c>
       <c r="UX90">
@@ -50453,7 +50463,7 @@
         <v>22455</v>
       </c>
       <c r="UW91">
-        <f t="shared" ref="UW91:UY91" si="1866">UV76-UV45</f>
+        <f t="shared" ref="UW91" si="1866">UV76-UV45</f>
         <v>21378</v>
       </c>
       <c r="UX91">
@@ -52834,7 +52844,7 @@
         <v>291</v>
       </c>
       <c r="UW92">
-        <f t="shared" ref="UW92:UY92" si="2136">UV24-UV72</f>
+        <f t="shared" ref="UW92" si="2136">UV24-UV72</f>
         <v>264</v>
       </c>
       <c r="UX92">
@@ -55215,7 +55225,7 @@
         <v>-75</v>
       </c>
       <c r="UW93">
-        <f t="shared" ref="UW93:UY93" si="2406">UV51-UV72</f>
+        <f t="shared" ref="UW93" si="2406">UV51-UV72</f>
         <v>-70</v>
       </c>
       <c r="UX93">
@@ -55957,7 +55967,7 @@
         <v>594</v>
       </c>
       <c r="CG97">
-        <f t="shared" ref="CG97:CW97" si="2435">FREQUENCY($B88:$VW88, CG$96)</f>
+        <f t="shared" ref="CG97:CV97" si="2435">FREQUENCY($B88:$VW88, CG$96)</f>
         <v>594</v>
       </c>
       <c r="CH97">
@@ -56302,7 +56312,7 @@
         <v>594</v>
       </c>
       <c r="BT98">
-        <f t="shared" ref="BT98:CW98" si="2439">FREQUENCY($B89:$VW89, BT$96)</f>
+        <f t="shared" ref="BT98:CV98" si="2439">FREQUENCY($B89:$VW89, BT$96)</f>
         <v>594</v>
       </c>
       <c r="BU98">
@@ -56699,7 +56709,7 @@
         <v>579</v>
       </c>
       <c r="BT99">
-        <f t="shared" ref="BT99:CW99" si="2442">FREQUENCY($B90:$VW90, BT$96)</f>
+        <f t="shared" ref="BT99:CV99" si="2442">FREQUENCY($B90:$VW90, BT$96)</f>
         <v>579</v>
       </c>
       <c r="BU99">
@@ -57096,7 +57106,7 @@
         <v>584</v>
       </c>
       <c r="BT100">
-        <f t="shared" ref="BT100:CW100" si="2445">FREQUENCY($B91:$VW91, BT$96)</f>
+        <f t="shared" ref="BT100:CV100" si="2445">FREQUENCY($B91:$VW91, BT$96)</f>
         <v>585</v>
       </c>
       <c r="BU100">
@@ -57493,7 +57503,7 @@
         <v>592</v>
       </c>
       <c r="BT101">
-        <f t="shared" ref="BT101:CW101" si="2448">FREQUENCY($B92:$VW92, BT$96)</f>
+        <f t="shared" ref="BT101:CV101" si="2448">FREQUENCY($B92:$VW92, BT$96)</f>
         <v>592</v>
       </c>
       <c r="BU101">
@@ -57890,7 +57900,7 @@
         <v>594</v>
       </c>
       <c r="BT102">
-        <f t="shared" ref="BT102:CW102" si="2451">FREQUENCY($B93:$VW93, BT$96)</f>
+        <f t="shared" ref="BT102:CV102" si="2451">FREQUENCY($B93:$VW93, BT$96)</f>
         <v>594</v>
       </c>
       <c r="BU102">
